--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3480.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3480.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15566157915398</v>
+        <v>0.7673213481903076</v>
       </c>
       <c r="B1">
-        <v>2.234038724871632</v>
+        <v>1.90214991569519</v>
       </c>
       <c r="C1">
-        <v>8.095229383961607</v>
+        <v>4.117806911468506</v>
       </c>
       <c r="D1">
-        <v>3.050897396148699</v>
+        <v>3.587493419647217</v>
       </c>
       <c r="E1">
-        <v>1.445130364276789</v>
+        <v>1.996114373207092</v>
       </c>
     </row>
   </sheetData>
